--- a/CoreRulebook/Data/Spells/charms.xlsx
+++ b/CoreRulebook/Data/Spells/charms.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A80456C-89AA-48D7-8C7D-C6945EAF73A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,54 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResistDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incendio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A small jet of fire is emitted from the tip of your wand. 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="187">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>ResistDV</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
+  </si>
+  <si>
+    <t>Create Fire</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>incendio</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>A small jet of fire is emitted from the tip of your wand. 
 Coming into contact with fire does 1d6 fire damage, and applies a minor Burned status effect.</t>
   </si>
   <si>
@@ -78,7 +83,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
+      <t>An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -88,7 +93,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -101,16 +106,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Create Trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (3 turns)</t>
+    <t>Create Trap</t>
+  </si>
+  <si>
+    <t>Kinesis</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Ritual (3 turns)</t>
   </si>
   <si>
     <t xml:space="preserve">Combine a magical ward with one of your existing spells. After casting the trap spell, cast the effect-spell to imbue the trap with that effect. 
@@ -124,7 +129,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A character above 10</t>
+      <t>A character above 10</t>
     </r>
     <r>
       <rPr>
@@ -134,7 +139,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -147,23 +152,23 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Create Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
+    <t>Create Water</t>
+  </si>
+  <si>
+    <t>aguamente</t>
+  </si>
+  <si>
+    <t>A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
     </r>
     <r>
       <rPr>
@@ -173,7 +178,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -186,58 +191,58 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fresh Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klinneract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gust of air refreshes the air in a sphere of radius (2 + PP) metres around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stabit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pale blue bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illuminate Wand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumos</t>
+    <t>Fresh Air</t>
+  </si>
+  <si>
+    <t>klinneract</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>A gust of air refreshes the air in a sphere of radius (2 + PP) metres around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>stabit</t>
+  </si>
+  <si>
+    <t>Pale blue bolt</t>
+  </si>
+  <si>
+    <t>Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
+  </si>
+  <si>
+    <t>Illuminate Wand</t>
+  </si>
+  <si>
+    <t>lumos</t>
   </si>
   <si>
     <t xml:space="preserve">Causes the tip of your wand to glow, like a torch. Casts bright light for 2m radius, and dim light for 10m. Spell last indefinitely, until concentration is broken, and does not require extra FP per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Launder Clothes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">savatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm glow</t>
+    <t>Launder Clothes</t>
+  </si>
+  <si>
+    <t>savatch</t>
+  </si>
+  <si>
+    <t>Warm glow</t>
   </si>
   <si>
     <t xml:space="preserve">Clean and dry the targeted fabrics, leaving them comfortably warm and smelling faintly of lavender. Can be used on clothes worn by a being, or on a stack of up to 5 outfits. </t>
   </si>
   <si>
-    <t xml:space="preserve">Levitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wingardium leviosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
+    <t>Levitation</t>
+  </si>
+  <si>
+    <t>wingardium leviosa</t>
+  </si>
+  <si>
+    <t>Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
 Each power point dedicated doubles the mass of the object that can be lifted.</t>
   </si>
   <si>
@@ -248,7 +253,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A character above 6</t>
+      <t>A character above 6</t>
     </r>
     <r>
       <rPr>
@@ -258,7 +263,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -277,7 +282,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -290,10 +295,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mark Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stylum</t>
+    <t>Mark Surface</t>
+  </si>
+  <si>
+    <t>stylum</t>
   </si>
   <si>
     <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush. The tip of the {\it brush} can be up to 0.5m away from the tip of your wand, but follows the motion of your wand exactly. The {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
@@ -302,10 +307,10 @@
     <t xml:space="preserve">When cast by an adept-level caster, the distance between the tip of the wand and the writing surface increases to half the character level. </t>
   </si>
   <si>
-    <t xml:space="preserve">Piercing Wail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnus surgerus</t>
+    <t>Piercing Wail</t>
+  </si>
+  <si>
+    <t>magnus surgerus</t>
   </si>
   <si>
     <t xml:space="preserve">All targets in a 10m spherical radius of the caster take 2 points of psychic damage (+3 per PP), and awaken if they are sleeping. </t>
@@ -320,10 +325,10 @@
     <t xml:space="preserve">Charge the tip of your wand with electrical energy. This energy is discharged when your wand-tip next touches a surface. Does 2 electrical damage on contact, and also fries any electrical equipment it comes into contact with. </t>
   </si>
   <si>
-    <t xml:space="preserve">Clean Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pullundo</t>
+    <t>Clean Surface</t>
+  </si>
+  <si>
+    <t>pullundo</t>
   </si>
   <si>
     <t xml:space="preserve">Erase magical and mundane markings from a surface. Cleans 1 square metre per turn that the spell is maintained. 
@@ -337,7 +342,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by an expert-level caster, the rune-trigger probability is decreased by 25\% for every 3 character levels over 12</t>
+      <t>When cast by an expert-level caster, the rune-trigger probability is decreased by 25\% for every 3 character levels over 12</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +352,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -360,13 +365,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cut Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffindo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver flash</t>
+    <t>Cut Object</t>
+  </si>
+  <si>
+    <t>diffindo</t>
+  </si>
+  <si>
+    <t>Silver flash</t>
   </si>
   <si>
     <t xml:space="preserve">Cut into an object, as if you had wielded a sharp knife with a blade of up to 10cm in length.
@@ -380,7 +385,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a character above 6</t>
+      <t>When cast by a character above 6</t>
     </r>
     <r>
       <rPr>
@@ -390,7 +395,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -403,23 +408,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Elemental Blade</t>
-  </si>
-  <si>
     <t xml:space="preserve"> gladio subtantia</t>
   </si>
   <si>
-    <t xml:space="preserve">The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">If the caster exceeds 8</t>
+    <t>The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>If the caster exceeds 8</t>
     </r>
     <r>
       <rPr>
@@ -429,7 +431,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -448,7 +450,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -461,114 +463,114 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fix Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reparo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bare hands (i.e. you cannot repair complex machinery without expert knowledge). Simple tasks (i.e. repairing glasses) work in a single turn, but repairing larger structures (i.e. a full stained glass window) require continued concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silvam currere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightning Bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baubilious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searing-white lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Health)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
+    <t>Fix Object</t>
+  </si>
+  <si>
+    <t>reparo</t>
+  </si>
+  <si>
+    <t>Green rays</t>
+  </si>
+  <si>
+    <t>Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bare hands (i.e. you cannot repair complex machinery without expert knowledge). Simple tasks (i.e. repairing glasses) work in a single turn, but repairing larger structures (i.e. a full stained glass window) require continued concentration.</t>
+  </si>
+  <si>
+    <t>Haste</t>
+  </si>
+  <si>
+    <t>silvam currere</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>baubilious</t>
+  </si>
+  <si>
+    <t>Searing-white lightning</t>
+  </si>
+  <si>
+    <t>SPR (Health)</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
   <si>
     <t xml:space="preserve">Releases a bolt of lightning from the end of your wand. 
 Lightning can initiate fires, provide electrical current or can be used directly in combat, where it deals 2d4 electric damage plus 1 \cvdv. Targets struck by lightning must succeed in a Resist check, or be blinded for 2 turns. </t>
   </si>
   <si>
-    <t xml:space="preserve">An expert level caster may do 3 electric damage \cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colloportus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperceptible rays</t>
+    <t>An expert level caster may do 3 electric damage \cvdv.</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>colloportus</t>
+  </si>
+  <si>
+    <t>Imperceptible rays</t>
   </si>
   <si>
     <t xml:space="preserve">Magically lock a door or chest. Mundane attempts to open the lock fail, and magical attempts must exceed the casting check of the locking spell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mage Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titillatio</t>
+    <t>Mage Hands</t>
+  </si>
+  <si>
+    <t>titillatio</t>
   </si>
   <si>
     <t xml:space="preserve">The caster produces an ethereal pair of hands that lasts whilst the spell is maintained. You can use your major action to controI the hands. You can use the hand to manipulate an object, open an unlocked door or container, stow or retrieve an item from an open container, or pour the contents out of a vial, but cannot use them to attack. Hands may be moved at a speed of 2m per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Smokescreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumus insterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obharesco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purple flash</t>
+    <t>Smokescreen</t>
+  </si>
+  <si>
+    <t>fumus insterio</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>obharesco</t>
+  </si>
+  <si>
+    <t>Purple flash</t>
   </si>
   <si>
     <t xml:space="preserve">Stick two objects together, as if you had fused them together at a molecular level. To break them apart requires either slicing the objects apart, or pulling them hard enough to break one (or both) of the objects. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">If the caster exceeds 11</t>
+    <t>Summon Object</t>
+  </si>
+  <si>
+    <t>accio</t>
+  </si>
+  <si>
+    <t>Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>If the caster exceeds 11</t>
     </r>
     <r>
       <rPr>
@@ -578,7 +580,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -591,61 +593,61 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Unlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alohomora</t>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>alohomora</t>
   </si>
   <si>
     <t xml:space="preserve">Unlock objects. Mundane locks will fall open for you, whilst to open magically locked objects, the unlocking must exceed the locking casting check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Freeze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glacius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used in combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Counterspell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finite incantatem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden rays</t>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>glacius</t>
+  </si>
+  <si>
+    <t>Blue rays</t>
+  </si>
+  <si>
+    <t>Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used in combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
+  </si>
+  <si>
+    <t>When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
+  </si>
+  <si>
+    <t>General Counterspell</t>
+  </si>
+  <si>
+    <t>finite incantatem</t>
+  </si>
+  <si>
+    <t>Golden rays</t>
   </si>
   <si>
     <t xml:space="preserve">End the effects of any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields, curses or spells which are still being cast).  </t>
   </si>
   <si>
-    <t xml:space="preserve">Leapfrog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raneus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target may leap up to (3+PP)m in any direction as a major action, and land safely whilst the spell is active.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Flame</t>
+    <t>Leapfrog</t>
+  </si>
+  <si>
+    <t>raneus</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>Target may leap up to (3+PP)m in any direction as a major action, and land safely whilst the spell is active.</t>
+  </si>
+  <si>
+    <t>Manipulate Flame</t>
   </si>
   <si>
     <t xml:space="preserve"> ignipare</t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows red</t>
+    <t>Wand-tip glows red</t>
   </si>
   <si>
     <t xml:space="preserve">Take control of an existing fire, and manipulate it to your will, creating walls of fire, or sending it flying towards your enemies.  
@@ -655,13 +657,13 @@
     <t xml:space="preserve">When cast by an expert level caster, fire does 3d8 damage, and a Master-level caster does 5d8. </t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate Water</t>
+    <t>Manipulate Water</t>
   </si>
   <si>
     <t xml:space="preserve"> aguapare</t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows blue</t>
+    <t>Wand-tip glows blue</t>
   </si>
   <si>
     <t xml:space="preserve">Manipulate existing bodies of water, creating whirlpools, waves or maelstroms.
@@ -671,16 +673,16 @@
     <t xml:space="preserve">When cast by an expert level caster, turbulent buffeting does 5d4 damage, and a Master-level caster does 7d4. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shatterblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tootanus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shockwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Health)</t>
+    <t>Shatterblast</t>
+  </si>
+  <si>
+    <t>tootanus</t>
+  </si>
+  <si>
+    <t>Shockwave</t>
+  </si>
+  <si>
+    <t>ATH (Health)</t>
   </si>
   <si>
     <t xml:space="preserve">Release a shockwave of sonic energy in a radius (1+PP)m, which causes all brittle objects to shatter. All objects made of crystal, glass, ceramic or porcelain lighter are shattered into many hundreds of pieces unless they weigh more than your Character level (in kg). Crystalline entities take 2d6 concussive damage. </t>
@@ -689,44 +691,44 @@
     <t xml:space="preserve">When cast by a Master-level caster, you can also effect objects made of stone up to 10kg in weight. </t>
   </si>
   <si>
-    <t xml:space="preserve">Spider Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aranerum fiducia</t>
+    <t>Spider Hands</t>
+  </si>
+  <si>
+    <t>aranerum fiducia</t>
   </si>
   <si>
     <t xml:space="preserve">Imbue the target with the ability to traverse up vertical walls using their hands and feet. Climbing movement checks are half the speed of a regular movement check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cushion Fall</t>
+    <t>Cushion Fall</t>
   </si>
   <si>
     <t xml:space="preserve">sofus </t>
   </si>
   <si>
-    <t xml:space="preserve">Painlessly break the fall of the target from any height up to (25+ $25\times$PP) metres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Earth</t>
+    <t>Painlessly break the fall of the target from any height up to (25+ $25\times$PP) metres.</t>
+  </si>
+  <si>
+    <t>Manipulate Earth</t>
   </si>
   <si>
     <t xml:space="preserve"> defodio </t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
+    <t>Wand-tip glows green</t>
+  </si>
+  <si>
+    <t>Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
 Range is 3m + 1 for every power point dedicated to the spell. More power points also let you perform more extravagant feats. \\ Violent earth manipulation causes 5 + 3d8 of damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by a master level caster, tremors do an additional 3d8 damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shatter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tootanus focum</t>
+    <t>When cast by a master level caster, tremors do an additional 3d8 damage.</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>tootanus focum</t>
   </si>
   <si>
     <t xml:space="preserve">Focus an ultrasonic vibration into a single target object or being made of crystal, class, ceramic or porcelain, and cause it to break. The tip of your wand must touch the target for the duration of the spell, and the spell gets stronger the longer it is maintained. In the first turn shatters objects 5kg or lighter, and then doubles every subsequent turn. </t>
@@ -735,67 +737,130 @@
     <t xml:space="preserve">When cast by a Master-level caster, you can also effect objects made of stone up to 200kg in weight. </t>
   </si>
   <si>
-    <t xml:space="preserve">Teleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cruratele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pink rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Air</t>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>cruratele</t>
+  </si>
+  <si>
+    <t>Pink rays</t>
+  </si>
+  <si>
+    <t>You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
+  </si>
+  <si>
+    <t>Manipulate Air</t>
   </si>
   <si>
     <t xml:space="preserve"> vente</t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Kinesis</t>
+    <t>Wand-tip glows white</t>
+  </si>
+  <si>
+    <t>Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
+  </si>
+  <si>
+    <t>Mass Kinesis</t>
   </si>
   <si>
     <t xml:space="preserve"> ballatutti</t>
   </si>
   <si>
     <t xml:space="preserve">Control huge numbers of objects as they levitate and move around: write a thousand books with a thousand quills, or conduct a swordfight with multiple blades at once. Can only use the objects if you would normally be able to use them without magic. You may only perform 4 unique actions with the objects, but you may duplicate those exact actions an arbitrary number of times in a 10m radius. For example, you could only copy out 4 books at a time, as each book requires a unique action, but you can copy the same book out as many times as you like, as the action is identical. </t>
+  </si>
+  <si>
+    <t>Cancel Gravity</t>
+  </si>
+  <si>
+    <t>reimannius</t>
+  </si>
+  <si>
+    <t>5 turns</t>
+  </si>
+  <si>
+    <t>Hovering Light</t>
+  </si>
+  <si>
+    <t>globus</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Glowing orb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summons a glowing orb,around 5cm in diameter that hovers above the caster\apos{}s head, casting bright light for 10m, and dim light for a furher 10m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an Adept-level caster, this can be cast as a {\it Concentration spell} (following the usual rules), in which case the caster can direct the light to move as they desire for as long as concentration is maintained. After concentration is broken, the light is extinguished. </t>
+  </si>
+  <si>
+    <t>Charge Region</t>
+  </si>
+  <si>
+    <t>rarnus</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Electric arc</t>
+  </si>
+  <si>
+    <t>Imbue a non-metalic object up to (2+PP)m in size with an enourmous electric charge. The next being to touch the object takes 3d6 electric damage. Although this spell is classed as a `ward', the threat is non-magical in nature after the spell has been cast. The charge-buildup therefore does not register to magic-only investigation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a character above 10th level, an extra d6 electric damage may be added for every  2 levels above 8th. </t>
+  </si>
+  <si>
+    <t>Mantle Element</t>
+  </si>
+  <si>
+    <t>Ritual (1 hour)</t>
+  </si>
+  <si>
+    <t>Until failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an element from the following list: {\it Fire, Water, Air, Earth, Lightning, Ice, Light} or {\it Shadow}. By meditating  deeply on the nature of that element, you may -- for a short time -- take on the mantle of that element.  \\ Whilst mantled, you are immune to all damage associated with your mantled element, and you may cast at will any spell associated with your element as a minor action. This spell costs 20 FP per turn to maintain, and when the FP runs out, you acquire 3 levels of exhaustion. </t>
+  </si>
+  <si>
+    <t>INT (perception)</t>
+  </si>
+  <si>
+    <t>White beam</t>
+  </si>
+  <si>
+    <t>caecus</t>
+  </si>
+  <si>
+    <t>Floodlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct a brilliant beam of light from the tip of your wand, illuminating a cone 10m  in front of you with Bright light, and dim light a further 10m. If a target is illuminated by the beam and fails to resist, they are blinded for 2 turns. </t>
+  </si>
+  <si>
+    <t>Elemental Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a character greater than 15th level, may be cast as an instant spell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon the completion of a complex mathematical calculation, the force of gravity is removed from a spherical region 10m in radius (doubled for every PP added), centred on the caster. Objects and beings no longer fall to the ground and instead remain suspended in mid-air unless otherwise acted upon. Crossing over the boundary restores gravity, until the region is re-entered. Suspended beings take a 3-point penalty to all checks. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -816,6 +881,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -832,14 +903,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -854,7 +925,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -870,109 +941,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1031,39 +1075,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="31.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="95.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="36.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="8.67"/>
+    <col min="1" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" style="1"/>
+    <col min="7" max="7" width="11.5703125" style="2"/>
+    <col min="8" max="9" width="15.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="95.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" style="3" customWidth="1"/>
+    <col min="12" max="1020" width="11.5703125" style="1"/>
+    <col min="1021" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1111,11 +1462,11 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
       <c r="H2" s="7"/>
@@ -1127,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1140,11 +1491,11 @@
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
       <c r="H3" s="7"/>
@@ -1156,7 +1507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1169,11 +1520,11 @@
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>1</v>
       </c>
       <c r="H4" s="7"/>
@@ -1185,7 +1536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -1198,11 +1549,11 @@
       <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
       <c r="H5" s="10"/>
@@ -1211,7 +1562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1024" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1224,13 +1575,13 @@
       <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="10"/>
@@ -1239,7 +1590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1024" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1252,11 +1603,11 @@
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
       <c r="H7" s="7"/>
@@ -1265,33 +1616,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1024" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1024" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1304,11 +1657,11 @@
       <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9" s="7"/>
@@ -1320,11 +1673,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:1024" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1333,23 +1686,23 @@
       <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1024" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>50</v>
       </c>
@@ -1362,11 +1715,11 @@
       <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="10"/>
@@ -1375,64 +1728,67 @@
         <v>52</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="AMG11" s="0"/>
-      <c r="AMH11" s="0"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="AMG11"/>
+      <c r="AMH11"/>
+      <c r="AMI11"/>
+      <c r="AMJ11"/>
+    </row>
+    <row r="12" spans="1:1024" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="n">
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
         <v>2</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1024" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
@@ -1445,13 +1801,13 @@
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
       <c r="H14" s="7"/>
@@ -1463,673 +1819,822 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1024" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="8">
         <v>2</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="G16" s="11">
         <v>2</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8" t="n">
+      <c r="E17" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
         <v>3</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9" t="s">
+      <c r="H17" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="84" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="B19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="8" t="n">
+        <v>78</v>
+      </c>
+      <c r="G19" s="8">
         <v>2</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="J19" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="11">
         <v>2</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>2</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="8" t="n">
+        <v>96</v>
+      </c>
+      <c r="G22" s="8">
         <v>2</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="7">
         <v>0</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>2</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="10">
         <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="G24" s="8">
         <v>2</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="15">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="14">
+        <v>10</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="8">
         <v>3</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8" t="n">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8">
         <v>3</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8">
         <v>3</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18">
+        <v>3</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="17">
+        <v>10</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="G31" s="15">
+        <v>3</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="I31" s="14">
+        <v>10</v>
+      </c>
+      <c r="J31" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="7" t="n">
-        <v>0</v>
+      <c r="E32" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="8" t="n">
-        <v>4</v>
+      <c r="G32" s="8">
+        <v>3</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8">
+        <v>3</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11">
+        <v>4</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="n">
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="8">
         <v>4</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>5</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>5</v>
+        <v>142</v>
+      </c>
+      <c r="G36" s="8">
+        <v>4</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11" t="n">
-        <v>5</v>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="11">
+        <v>4</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="11">
+        <v>4</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>160</v>
       </c>
+      <c r="B39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18">
+        <v>5</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11">
+        <v>5</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="11">
+        <v>4</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AMJ42">
+    <sortCondition ref="G2:G42"/>
+    <sortCondition ref="A2:A42"/>
+  </sortState>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
